--- a/tests/testthat/xlsx/test_openxlsx6.xlsx
+++ b/tests/testthat/xlsx/test_openxlsx6.xlsx
@@ -199,22 +199,25 @@
     <t xml:space="preserve">value</t>
   </si>
   <si>
+    <t xml:space="preserve">cyl=4 &amp; am=auto</t>
+  </si>
+  <si>
+    <t xml:space="preserve">cyl=6 &amp; am=auto</t>
+  </si>
+  <si>
+    <t xml:space="preserve">cyl=8 &amp; am=auto</t>
+  </si>
+  <si>
+    <t xml:space="preserve">cyl=4 &amp; am=manual</t>
+  </si>
+  <si>
     <t xml:space="preserve">cyl=6 &amp; am=manual</t>
   </si>
   <si>
-    <t xml:space="preserve">cyl=4 &amp; am=manual</t>
-  </si>
-  <si>
     <t xml:space="preserve">cyl=8 &amp; am=manual</t>
   </si>
   <si>
-    <t xml:space="preserve">cyl=6 &amp; am=auto</t>
-  </si>
-  <si>
-    <t xml:space="preserve">cyl=4 &amp; am=auto</t>
-  </si>
-  <si>
-    <t xml:space="preserve">cyl=8 &amp; am=auto</t>
+    <t xml:space="preserve">21.5 / 24.4</t>
   </si>
   <si>
     <t xml:space="preserve">19.7 / 21.0</t>
@@ -223,82 +226,79 @@
     <t xml:space="preserve">15.0 / 15.8</t>
   </si>
   <si>
-    <t xml:space="preserve">21.5 / 24.4</t>
+    <t xml:space="preserve">22.8 [22.1;23.6]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.6 [18.0;19.8]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.2 [14.1;16.6]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">28.9 [25.2;30.9]</t>
   </si>
   <si>
     <t xml:space="preserve">21.0 [20.4;21.0]</t>
   </si>
   <si>
-    <t xml:space="preserve">28.9 [25.2;30.9]</t>
-  </si>
-  <si>
     <t xml:space="preserve">15.4 [15.2;15.6]</t>
   </si>
   <si>
-    <t xml:space="preserve">18.6 [18.0;19.8]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.8 [22.1;23.6]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.2 [14.1;16.6]</t>
+    <t xml:space="preserve">22.9 (1.5)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.1 (1.6)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.1 (2.8)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">28.1 (4.5)</t>
   </si>
   <si>
     <t xml:space="preserve">20.6 (0.8)</t>
   </si>
   <si>
-    <t xml:space="preserve">28.1 (4.5)</t>
-  </si>
-  <si>
     <t xml:space="preserve">15.4 (0.6)</t>
   </si>
   <si>
-    <t xml:space="preserve">19.1 (1.6)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.9 (1.5)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.1 (2.8)</t>
-  </si>
-  <si>
     <t xml:space="preserve">3 (0)</t>
   </si>
   <si>
+    <t xml:space="preserve">4 (0)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12 (0)</t>
+  </si>
+  <si>
     <t xml:space="preserve">8 (0)</t>
   </si>
   <si>
     <t xml:space="preserve">2 (0)</t>
   </si>
   <si>
-    <t xml:space="preserve">4 (0)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12 (0)</t>
+    <t xml:space="preserve">3 (21.43%)</t>
   </si>
   <si>
     <t xml:space="preserve">7 (50.00%)</t>
   </si>
   <si>
-    <t xml:space="preserve">3 (21.43%)</t>
+    <t xml:space="preserve">12 (66.67%)</t>
   </si>
   <si>
     <t xml:space="preserve">2 (11.11%)</t>
   </si>
   <si>
-    <t xml:space="preserve">12 (66.67%)</t>
-  </si>
-  <si>
     <t xml:space="preserve">3 (9.38%)</t>
   </si>
   <si>
+    <t xml:space="preserve">4 (12.50%)</t>
+  </si>
+  <si>
     <t xml:space="preserve">8 (25.00%)</t>
   </si>
   <si>
     <t xml:space="preserve">2 (6.25%)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4 (12.50%)</t>
   </si>
   <si>
     <t xml:space="preserve">2 (16.67%)</t>
@@ -1228,12 +1228,12 @@
     <col min="1" max="1" width="3.71" hidden="0" customWidth="1"/>
     <col min="2" max="2" width="23.71" hidden="0" customWidth="1"/>
     <col min="3" max="3" width="10.71" hidden="0" customWidth="1"/>
-    <col min="4" max="4" width="21.71" hidden="0" customWidth="1"/>
-    <col min="5" max="5" width="21.71" hidden="0" customWidth="1"/>
-    <col min="6" max="6" width="21.71" hidden="0" customWidth="1"/>
-    <col min="7" max="7" width="19.71" hidden="0" customWidth="1"/>
-    <col min="8" max="8" width="19.71" hidden="0" customWidth="1"/>
-    <col min="9" max="9" width="19.71" hidden="0" customWidth="1"/>
+    <col min="4" max="4" width="19.71" hidden="0" customWidth="1"/>
+    <col min="5" max="5" width="19.71" hidden="0" customWidth="1"/>
+    <col min="6" max="6" width="19.71" hidden="0" customWidth="1"/>
+    <col min="7" max="7" width="21.71" hidden="0" customWidth="1"/>
+    <col min="8" max="8" width="21.71" hidden="0" customWidth="1"/>
+    <col min="9" max="9" width="21.71" hidden="0" customWidth="1"/>
     <col min="10" max="10" width="16.71" hidden="0" customWidth="1"/>
   </cols>
   <sheetData>
@@ -1291,19 +1291,19 @@
         <v>66</v>
       </c>
       <c r="E3" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="F3" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="G3" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="F3" s="4" t="s">
+      <c r="H3" s="4" t="s">
         <v>67</v>
       </c>
-      <c r="G3" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="H3" s="4" t="s">
+      <c r="I3" s="4" t="s">
         <v>68</v>
-      </c>
-      <c r="I3" s="4" t="s">
-        <v>12</v>
       </c>
       <c r="J3" s="4" t="s">
         <v>13</v>
@@ -1408,19 +1408,19 @@
         <v>31</v>
       </c>
       <c r="D7" s="6" t="s">
-        <v>34</v>
+        <v>86</v>
       </c>
       <c r="E7" s="6" t="s">
-        <v>86</v>
+        <v>33</v>
       </c>
       <c r="F7" s="6" t="s">
         <v>34</v>
       </c>
       <c r="G7" s="6" t="s">
-        <v>33</v>
+        <v>87</v>
       </c>
       <c r="H7" s="6" t="s">
-        <v>87</v>
+        <v>34</v>
       </c>
       <c r="I7" s="6" t="s">
         <v>34</v>
@@ -1438,19 +1438,19 @@
         <v>37</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="F8" s="1" t="s">
         <v>88</v>
       </c>
       <c r="G8" s="1" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="H8" s="1" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="I8" s="1" t="s">
         <v>89</v>
@@ -1474,16 +1474,16 @@
         <v>91</v>
       </c>
       <c r="F9" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="G9" s="1" t="s">
         <v>92</v>
-      </c>
-      <c r="G9" s="1" t="s">
-        <v>93</v>
       </c>
       <c r="H9" s="1" t="s">
         <v>90</v>
       </c>
       <c r="I9" s="1" t="s">
-        <v>54</v>
+        <v>93</v>
       </c>
       <c r="J9" s="1" t="s">
         <v>44</v>
@@ -1498,22 +1498,22 @@
         <v>46</v>
       </c>
       <c r="D10" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="E10" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="F10" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="G10" s="6" t="s">
         <v>34</v>
       </c>
-      <c r="E10" s="6" t="s">
+      <c r="H10" s="6" t="s">
         <v>34</v>
       </c>
-      <c r="F10" s="6" t="s">
+      <c r="I10" s="6" t="s">
         <v>34</v>
-      </c>
-      <c r="G10" s="6" t="s">
-        <v>48</v>
-      </c>
-      <c r="H10" s="6" t="s">
-        <v>47</v>
-      </c>
-      <c r="I10" s="6" t="s">
-        <v>49</v>
       </c>
       <c r="J10" s="6" t="s">
         <v>50</v>
@@ -1531,13 +1531,13 @@
         <v>94</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="F11" s="1" t="s">
         <v>34</v>
       </c>
       <c r="G11" s="1" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="H11" s="1" t="s">
         <v>94</v>
@@ -1558,22 +1558,22 @@
         <v>55</v>
       </c>
       <c r="D12" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="E12" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="F12" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="G12" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="H12" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="E12" s="1" t="s">
+      <c r="I12" s="1" t="s">
         <v>56</v>
-      </c>
-      <c r="F12" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="G12" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="H12" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="I12" s="1" t="s">
-        <v>34</v>
       </c>
       <c r="J12" s="1" t="s">
         <v>58</v>
@@ -1594,16 +1594,16 @@
         <v>91</v>
       </c>
       <c r="F13" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="G13" s="1" t="s">
         <v>92</v>
-      </c>
-      <c r="G13" s="1" t="s">
-        <v>93</v>
       </c>
       <c r="H13" s="1" t="s">
         <v>90</v>
       </c>
       <c r="I13" s="1" t="s">
-        <v>54</v>
+        <v>93</v>
       </c>
       <c r="J13" s="1" t="s">
         <v>44</v>
